--- a/datasets/列车检修范围管理.xlsx
+++ b/datasets/列车检修范围管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22356" windowHeight="10020"/>
+    <workbookView windowWidth="30036" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="列车检修范围管理" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="61">
   <si>
     <t>列车编号</t>
   </si>
@@ -185,6 +185,9 @@
     <t>1506-02</t>
   </si>
   <si>
+    <t>1702-01</t>
+  </si>
+  <si>
     <t>计数</t>
   </si>
   <si>
@@ -210,10 +213,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -675,49 +685,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,98 +736,101 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -832,6 +842,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1152,10 +1168,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C645"/>
+  <dimension ref="A1:C673"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A636" workbookViewId="0">
+      <selection activeCell="D639" sqref="D639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -8256,6 +8272,314 @@
         <v>53</v>
       </c>
       <c r="C645" s="1">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3">
+      <c r="A646" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B646" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C646" s="1">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3">
+      <c r="A647" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B647" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C647" s="1">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3">
+      <c r="A648" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B648" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C648" s="1">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3">
+      <c r="A649" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B649" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C649" s="1">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3">
+      <c r="A650" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B650" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C650" s="1">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3">
+      <c r="A651" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B651" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C651" s="1">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3">
+      <c r="A652" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B652" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C652" s="1">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3">
+      <c r="A653" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B653" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C653" s="1">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3">
+      <c r="A654" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B654" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C654" s="1">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3">
+      <c r="A655" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B655" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C655" s="1">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3">
+      <c r="A656" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B656" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C656" s="1">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3">
+      <c r="A657" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B657" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C657" s="1">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3">
+      <c r="A658" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B658" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C658" s="1">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3">
+      <c r="A659" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B659" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C659" s="1">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3">
+      <c r="A660" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B660" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C660" s="1">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3">
+      <c r="A661" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B661" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C661" s="1">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3">
+      <c r="A662" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B662" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C662" s="1">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3">
+      <c r="A663" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B663" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C663" s="1">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3">
+      <c r="A664" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B664" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C664" s="1">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3">
+      <c r="A665" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B665" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C665" s="1">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3">
+      <c r="A666" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B666" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C666" s="1">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3">
+      <c r="A667" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B667" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C667" s="1">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3">
+      <c r="A668" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B668" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C668" s="1">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3">
+      <c r="A669" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B669" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C669" s="1">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3">
+      <c r="A670" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B670" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C670" s="1">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3">
+      <c r="A671" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B671" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C671" s="1">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3">
+      <c r="A672" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B672" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C672" s="1">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3">
+      <c r="A673" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B673" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C673" s="1">
         <v>1825</v>
       </c>
     </row>
@@ -8288,7 +8612,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -8299,7 +8623,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8310,7 +8634,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8321,7 +8645,7 @@
         <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8332,7 +8656,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8343,7 +8667,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8354,7 +8678,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8365,7 +8689,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -8376,7 +8700,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -8387,7 +8711,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -8398,7 +8722,7 @@
         <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -8409,7 +8733,7 @@
         <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8420,7 +8744,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -8431,7 +8755,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -8442,7 +8766,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -8453,7 +8777,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -8464,7 +8788,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -8475,7 +8799,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -8486,7 +8810,7 @@
         <v>28</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -8497,7 +8821,7 @@
         <v>28</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -8508,7 +8832,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -8519,7 +8843,7 @@
         <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -8530,7 +8854,7 @@
         <v>28</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -8541,7 +8865,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -8552,7 +8876,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
